--- a/gptables/examples/R_iris_gptable.xlsx
+++ b/gptables/examples/R_iris_gptable.xlsx
@@ -16,13 +16,38 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Iris dataset(1)</t>
-  </si>
-  <si>
-    <t>One subtitle</t>
-  </si>
-  <si>
-    <t>Another subtitle</t>
+    <r>
+      <t>Mean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Iris</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1) sepal dimensions</t>
+    </r>
+  </si>
+  <si>
+    <t>1936 Fisher, R.A; The use of multiple measurements in taxonomic problems(2)</t>
+  </si>
+  <si>
+    <t>Just another subtitile</t>
   </si>
   <si>
     <t>Iris</t>
@@ -31,10 +56,10 @@
     <t>cm</t>
   </si>
   <si>
-    <t>Mean.Sepal.Length</t>
-  </si>
-  <si>
-    <t>Mean.Sepal.Width</t>
+    <t>Mean Sepal Length</t>
+  </si>
+  <si>
+    <t>Mean Sepal Width</t>
   </si>
   <si>
     <t>setosa</t>
@@ -49,13 +74,13 @@
     <t>(Source: Office for Iris Statistics)</t>
   </si>
   <si>
-    <t>(1: Presented using gptables)</t>
-  </si>
-  <si>
-    <t>(This is not referenced)</t>
-  </si>
-  <si>
-    <t>(Also not referenced)</t>
+    <t>(1: Goo Goo Dolls, 1998.)</t>
+  </si>
+  <si>
+    <t>(2: I've got 99 problems and taxonomy is one.)</t>
+  </si>
+  <si>
+    <t>(This note hath no reference.)</t>
   </si>
 </sst>
 </file>
